--- a/biology/Botanique/Faham/Faham.xlsx
+++ b/biology/Botanique/Faham/Faham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jumellea fragrans
 Le faham, Jumellea fragrans (Thouars) Schltr., est une espèce d’orchidées endémique des Mascareignes. 
 En dépit de sa rareté croissante à La Réunion, celle-ci y est traditionnellement récoltée dans la nature pour confectionner le rhum arrangé. Elle apporte à ce breuvage son goût de caramel caractéristique. Elle est aussi utilisée en tisane dans la médecine traditionnelle réunionnaise pour soigner le rhume.
-Le principal composant aromatique est la coumarine[2].
-Comme toutes les orchidées sauvages, le faham est visé par la Convention sur le commerce international des espèces de faune et de flore sauvages menacées d'extinction (« Convention de Washington »), et relève à ce titre de son annexe II[3]. Son commerce hors de La Réunion ou hors de Maurice est théoriquement strictement soumis à la délivrance d'un permis d'exportation.
+Le principal composant aromatique est la coumarine.
+Comme toutes les orchidées sauvages, le faham est visé par la Convention sur le commerce international des espèces de faune et de flore sauvages menacées d'extinction (« Convention de Washington »), et relève à ce titre de son annexe II. Son commerce hors de La Réunion ou hors de Maurice est théoriquement strictement soumis à la délivrance d'un permis d'exportation.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Informations complémentaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Endémisme dans les Mascareignes.</t>
         </is>
